--- a/excel/transactionLog.xlsx
+++ b/excel/transactionLog.xlsx
@@ -1,77 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB73E96-54D0-4660-9B14-6AF11D869705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="Transactions" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="Transactions" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
-  <si>
-    <t>Entrée</t>
-  </si>
-  <si>
-    <t>4/20/2025</t>
-  </si>
-  <si>
-    <t>5:32:48 PM</t>
-  </si>
-  <si>
-    <t>5:36:18 PM</t>
-  </si>
-  <si>
-    <t>5:37:08 PM</t>
-  </si>
-  <si>
-    <t>5:37:36 PM</t>
-  </si>
-  <si>
-    <t>4/24/2025</t>
-  </si>
-  <si>
-    <t>10:05:55 PM</t>
-  </si>
-  <si>
-    <t>Sortie</t>
-  </si>
-  <si>
-    <t>10:06:08 PM</t>
-  </si>
-  <si>
-    <t>11:04:23 PM</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Produit</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Entree</t>
+  </si>
+  <si>
+    <t>4/29/2025</t>
+  </si>
+  <si>
+    <t>4:03:58 PM</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4:04:02 PM</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4:10:23 PM</t>
+  </si>
+  <si>
+    <t>5/1/2025</t>
+  </si>
+  <si>
+    <t>12:06:44 AM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -79,12 +93,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -426,204 +452,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>84</v>
-      </c>
-      <c r="E3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>5959595</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4154</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5487</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1">
-        <v>54545</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5151</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="1">
-        <v>54848</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5484848</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1">
-        <v>55</v>
-      </c>
-      <c r="E12" s="1">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/excel/transactionLog.xlsx
+++ b/excel/transactionLog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Type</t>
   </si>
@@ -53,6 +53,18 @@
   </si>
   <si>
     <t>12:06:44 AM</t>
+  </si>
+  <si>
+    <t>10:56:45 AM</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Sortie</t>
+  </si>
+  <si>
+    <t>10:56:51 AM</t>
   </si>
 </sst>
 </file>
@@ -453,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -541,6 +553,40 @@
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
